--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Date" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>账单日</t>
   </si>
@@ -129,21 +129,6 @@
   </si>
   <si>
     <t>31日</t>
-  </si>
-  <si>
-    <t>邓友谊</t>
-  </si>
-  <si>
-    <t>祝菲菲</t>
-  </si>
-  <si>
-    <t>江助正</t>
-  </si>
-  <si>
-    <t>李三国</t>
-  </si>
-  <si>
-    <t>张洁</t>
   </si>
 </sst>
 </file>
@@ -165,6 +150,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -173,45 +225,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,23 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,55 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,31 +303,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,151 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,45 +494,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +551,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -609,6 +576,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +614,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,314 +1070,342 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O32"/>
+  <dimension ref="D1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D10" sqref="D10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="3:14">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="5:16">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="B2" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="5:16">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="5:16">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="4:17">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
-      <c r="B3" t="s">
+    <row r="5" spans="4:17">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
-      <c r="B4" t="s">
+    <row r="6" spans="4:17">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" t="s">
+    <row r="7" spans="4:17">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
-      <c r="B6" t="s">
+    <row r="8" spans="4:17">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" t="s">
+    <row r="9" spans="4:17">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K9" t="s">
         <v>9</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" t="s">
+    <row r="10" spans="4:17">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" t="s">
+    <row r="11" spans="4:17">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" t="s">
+    <row r="12" spans="4:17">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" t="s">
+    <row r="13" spans="4:17">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" t="s">
+    <row r="14" spans="4:17">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" t="s">
+    <row r="15" spans="4:17">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" t="s">
+    <row r="16" spans="4:17">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" t="s">
+    <row r="17" spans="4:17">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" t="s">
+    <row r="18" spans="4:17">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K18" t="s">
         <v>20</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" t="s">
+    <row r="19" spans="4:17">
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K19" t="s">
         <v>22</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" t="s">
+    <row r="20" spans="4:17">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" t="s">
+    <row r="21" spans="4:17">
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" t="s">
+    <row r="22" spans="4:17">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" t="s">
+    <row r="23" spans="4:17">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" t="s">
+    <row r="24" spans="4:17">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K24" t="s">
         <v>3</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
-      <c r="B23" t="s">
+    <row r="25" spans="4:17">
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
-      <c r="B24" t="s">
+    <row r="26" spans="4:17">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
-      <c r="B25" t="s">
+    <row r="27" spans="4:17">
+      <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
-      <c r="B26" t="s">
+    <row r="28" spans="4:17">
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
-      <c r="B27" t="s">
+    <row r="29" spans="4:17">
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
-      <c r="B28" t="s">
+    <row r="30" spans="4:17">
+      <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
-      <c r="B29" t="s">
+    <row r="31" spans="4:17">
+      <c r="D31" t="s">
         <v>34</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
-      <c r="B30" t="s">
+    <row r="32" spans="4:17">
+      <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
-      <c r="B31" t="s">
+    <row r="33" spans="4:17">
+      <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
-      <c r="B32" t="s">
+    <row r="34" spans="4:17">
+      <c r="D34" t="s">
         <v>37</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q34" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E1:J3"/>
+    <mergeCell ref="K1:P3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1402,55 +1415,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>账单日</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>28日</t>
+  </si>
+  <si>
+    <t>农业银行</t>
   </si>
   <si>
     <t>29日</t>
@@ -136,17 +139,40 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +185,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,90 +214,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,9 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,16 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,19 +314,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,151 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,45 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +519,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,11 +549,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,15 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,142 +625,145 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,7 +1087,7 @@
   <dimension ref="D1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:Q10"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1366,6 +1380,9 @@
       <c r="D30" t="s">
         <v>33</v>
       </c>
+      <c r="K30" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="Q30" t="s">
         <v>33</v>
       </c>
@@ -1374,32 +1391,35 @@
       <c r="D31" t="s">
         <v>34</v>
       </c>
+      <c r="K31" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="4:17">
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:17">
       <c r="D33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="4:17">
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>账单日</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>2日</t>
+  </si>
+  <si>
+    <t>建设银行</t>
   </si>
   <si>
     <t>3日</t>
@@ -139,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -161,6 +164,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -169,8 +194,92 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,121 +294,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +508,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,39 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +628,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1090,7 @@
   <dimension ref="D1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1153,273 +1156,279 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="4:17">
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:17">
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="4:17">
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="4:17">
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
         <v>9</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="4:17">
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" t="s">
         <v>11</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:17">
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="4:17">
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="4:17">
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:17">
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="4:17">
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="4:17">
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:17">
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="4:17">
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
         <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:17">
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
         <v>22</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:17">
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="4:17">
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="4:17">
       <c r="D22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="4:17">
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="4:17">
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
         <v>3</v>
       </c>
       <c r="Q24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="4:17">
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="4:17">
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="4:17">
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="4:17">
       <c r="D28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="4:17">
       <c r="D29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="4:17">
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="4:17">
       <c r="D31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" t="s">
         <v>35</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="4:17">
       <c r="D32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="4:17">
       <c r="D33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="4:17">
       <c r="D34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
-    <t>账单日</t>
+    <t>起刷日</t>
   </si>
   <si>
     <t>还款日</t>
@@ -26,16 +26,16 @@
     <t>1日</t>
   </si>
   <si>
+    <t>2日</t>
+  </si>
+  <si>
     <t>广发银行</t>
   </si>
   <si>
-    <t>2日</t>
+    <t>3日</t>
   </si>
   <si>
     <t>建设银行</t>
-  </si>
-  <si>
-    <t>3日</t>
   </si>
   <si>
     <t>4日</t>
@@ -142,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -164,23 +164,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,69 +210,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,8 +270,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,21 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,19 +317,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +401,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,151 +449,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,28 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +591,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -616,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,138 +628,141 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1087,28 +1090,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:Q34"/>
+  <dimension ref="E1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H1" sqref="H1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="5:16">
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1117,12 +1120,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1131,310 +1134,310 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="4:17">
-      <c r="D4" t="s">
+    <row r="4" spans="7:14">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="7:14">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:17">
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14">
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14">
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14">
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14">
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14">
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14">
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14">
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14">
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14">
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14">
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14">
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="4:17">
-      <c r="D6" t="s">
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14">
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="4:17">
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17">
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="4:17">
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="4:17">
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14">
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14">
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14">
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14">
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17">
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17">
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17">
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17">
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17">
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17">
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17">
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17">
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17">
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17">
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17">
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17">
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17">
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17">
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17">
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17">
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17">
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17">
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17">
-      <c r="D30" t="s">
+      <c r="N30" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17">
-      <c r="D31" t="s">
+    </row>
+    <row r="31" spans="7:14">
+      <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="N31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="4:17">
-      <c r="D32" t="s">
+    <row r="32" spans="7:14">
+      <c r="G32" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="N32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="4:17">
-      <c r="D33" t="s">
+    <row r="33" spans="7:14">
+      <c r="G33" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="N33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="4:17">
-      <c r="D34" t="s">
+    <row r="34" spans="7:14">
+      <c r="G34" t="s">
         <v>39</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="N34" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:J3"/>
-    <mergeCell ref="K1:P3"/>
+    <mergeCell ref="H1:J3"/>
+    <mergeCell ref="K1:M3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -8,14 +8,23 @@
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Increase" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t>下卡顺序</t>
+  </si>
+  <si>
+    <t>首卡</t>
+  </si>
+  <si>
+    <t>二卡</t>
+  </si>
   <si>
     <t>起刷日</t>
   </si>
@@ -23,13 +32,25 @@
     <t>还款日</t>
   </si>
   <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>广发银行</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
     <t>1日</t>
   </si>
   <si>
+    <t>民生银行</t>
+  </si>
+  <si>
     <t>2日</t>
   </si>
   <si>
-    <t>广发银行</t>
+    <t>交通银行</t>
   </si>
   <si>
     <t>3日</t>
@@ -41,21 +62,21 @@
     <t>4日</t>
   </si>
   <si>
+    <t>农业银行</t>
+  </si>
+  <si>
     <t>5日</t>
   </si>
   <si>
     <t>6日</t>
   </si>
   <si>
-    <t>招商银行</t>
+    <t>光大银行</t>
   </si>
   <si>
     <t>7日</t>
   </si>
   <si>
-    <t>中国银行</t>
-  </si>
-  <si>
     <t>8日</t>
   </si>
   <si>
@@ -80,15 +101,9 @@
     <t>15日</t>
   </si>
   <si>
-    <t>民生银行</t>
-  </si>
-  <si>
     <t>16日</t>
   </si>
   <si>
-    <t>交通银行</t>
-  </si>
-  <si>
     <t>17日</t>
   </si>
   <si>
@@ -123,9 +138,6 @@
   </si>
   <si>
     <t>28日</t>
-  </si>
-  <si>
-    <t>农业银行</t>
   </si>
   <si>
     <t>29日</t>
@@ -141,11 +153,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -165,7 +178,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,23 +254,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,14 +292,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,83 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,31 +330,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,72 +504,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,54 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,41 +524,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,8 +553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,13 +574,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,149 +629,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1090,25 +1106,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:P34"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J3"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="5:16">
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1116,9 +1146,19 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="5:16">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42241</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42956</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1130,9 +1170,17 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="5:16">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42965</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1144,295 +1192,541 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="7:14">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42965</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="7:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42980</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="7:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42982</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="7:14">
-      <c r="G7" t="s">
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="7:14">
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="7:14">
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="7:14">
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="7:14">
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="7:14">
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="7:14">
-      <c r="G13" t="s">
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="7:14">
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="7:14">
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="7:14">
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="7:14">
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="7:14">
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="7:14">
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="7:14">
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="7:14">
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="7:14">
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="7:14">
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="7:14">
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="7:14">
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="7:14">
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="7:14">
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="7:14">
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="7:14">
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="7:14">
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="7:14">
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="7:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="7:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="7:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N34" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1450,7 +1744,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>下卡顺序</t>
   </si>
@@ -32,6 +32,9 @@
     <t>还款日</t>
   </si>
   <si>
+    <t>加粗为贷款</t>
+  </si>
+  <si>
     <t>招商银行</t>
   </si>
   <si>
@@ -68,10 +71,10 @@
     <t>5日</t>
   </si>
   <si>
+    <t>光大银行</t>
+  </si>
+  <si>
     <t>6日</t>
-  </si>
-  <si>
-    <t>光大银行</t>
   </si>
   <si>
     <t>7日</t>
@@ -154,11 +157,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,7 +181,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +240,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -200,16 +263,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,37 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -261,65 +323,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,37 +333,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,133 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,41 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,17 +557,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +594,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,149 +632,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,8 +784,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1109,7 +1115,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1131,7 +1137,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1142,13 +1148,15 @@
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>42241</v>
@@ -1159,20 +1167,20 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>42965</v>
@@ -1181,20 +1189,20 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>42965</v>
@@ -1202,15 +1210,15 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>42980</v>
@@ -1220,18 +1228,18 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>42982</v>
@@ -1241,18 +1249,18 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
         <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>42996</v>
@@ -1262,15 +1270,15 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>42999</v>
@@ -1280,29 +1288,34 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43000</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -1312,10 +1325,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -1325,13 +1338,13 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -1341,13 +1354,13 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -1357,10 +1370,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -1370,10 +1383,10 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -1383,10 +1396,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -1396,10 +1409,10 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -1409,13 +1422,13 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1425,13 +1438,13 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -1441,13 +1454,13 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1457,10 +1470,10 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1470,16 +1483,16 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1489,10 +1502,10 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -1502,10 +1515,10 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -1515,13 +1528,13 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -1531,16 +1544,16 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:14">
@@ -1550,10 +1563,10 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:14">
@@ -1563,13 +1576,13 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
         <v>18</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:14">
@@ -1579,13 +1592,13 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -1595,10 +1608,10 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:14">
@@ -1608,13 +1621,13 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:14">
@@ -1624,13 +1637,13 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -1640,10 +1653,10 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:14">
@@ -1653,10 +1666,10 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:14">
@@ -1666,10 +1679,10 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -1729,7 +1742,9 @@
       <c r="F42" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="H1:J3"/>
     <mergeCell ref="K1:M3"/>
   </mergeCells>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16965" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>起刷日</t>
   </si>
@@ -90,12 +90,12 @@
     <t>14日</t>
   </si>
   <si>
+    <t>民生银行</t>
+  </si>
+  <si>
     <t>15日</t>
   </si>
   <si>
-    <t>民生银行</t>
-  </si>
-  <si>
     <t>16日</t>
   </si>
   <si>
@@ -150,16 +150,16 @@
     <t>卡</t>
   </si>
   <si>
-    <t>下卡日期</t>
-  </si>
-  <si>
-    <t>二卡下卡日期</t>
-  </si>
-  <si>
-    <t>三卡</t>
-  </si>
-  <si>
-    <t>四卡</t>
+    <t>首申日期</t>
+  </si>
+  <si>
+    <t>渠道/结果</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>开卡日期</t>
   </si>
   <si>
     <t>当前额度</t>
@@ -168,28 +168,128 @@
     <t>原始额度</t>
   </si>
   <si>
-    <t>日期</t>
+    <t>提额日期</t>
+  </si>
+  <si>
+    <t>额度</t>
   </si>
   <si>
     <t>提额原因</t>
   </si>
   <si>
-    <t>额度</t>
+    <t>二卡日期</t>
+  </si>
+  <si>
+    <t>上门/成功</t>
+  </si>
+  <si>
+    <t>工牌</t>
   </si>
   <si>
     <t>第一次25个月提额</t>
+  </si>
+  <si>
+    <t>网申/成功</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>无(房贷，不需要面签)</t>
+  </si>
+  <si>
+    <t>无（网点开卡遇麻烦）</t>
+  </si>
+  <si>
+    <t>无（5分钟出额度）</t>
+  </si>
+  <si>
+    <t>网点/成功</t>
+  </si>
+  <si>
+    <t>双证</t>
+  </si>
+  <si>
+    <t>双证+收入证明</t>
+  </si>
+  <si>
+    <t>无（芝麻信用781）</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>网点</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>行驶证+收入证明+农行信用卡</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>网申</t>
+  </si>
+  <si>
+    <t>无（行驶证，大堂经理手机操作）</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>上门</t>
+  </si>
+  <si>
+    <t>双证+公积金(支付宝)+工牌</t>
+  </si>
+  <si>
+    <t>浙商银行</t>
+  </si>
+  <si>
+    <t>双证+公积金(支付宝)+收入证明+光大信用卡</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>无（小白信用98.9，白条15k，金条20k）</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>花旗银行</t>
+  </si>
+  <si>
+    <t>汇丰银行</t>
+  </si>
+  <si>
+    <t>温州银行</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,29 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -239,16 +316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,14 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,21 +363,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,17 +378,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,8 +437,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,18 +461,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,7 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,151 +617,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +652,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,32 +729,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,182 +752,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,13 +909,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -824,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,7 +1249,7 @@
   <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1173,8 +1273,8 @@
       <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="5:15">
       <c r="E2" s="5"/>
@@ -1185,8 +1285,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="5:15">
       <c r="E3" s="5"/>
@@ -1197,8 +1297,8 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -1353,6 +1453,9 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
@@ -1362,13 +1465,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -1499,7 +1599,7 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
         <v>36</v>
@@ -1526,7 +1626,7 @@
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L30" t="s">
@@ -1540,7 +1640,7 @@
       <c r="E31" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L31" t="s">
@@ -1643,25 +1743,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1677,7 +1776,7 @@
       <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1686,7 +1785,7 @@
       <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I1" t="s">
@@ -1695,227 +1794,367 @@
       <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" t="s">
-        <v>50</v>
+      <c r="K1" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
+        <v>42227</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2">
         <v>42241</v>
       </c>
-      <c r="C2" s="4">
-        <v>42956</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
       <c r="F2">
         <v>35</v>
       </c>
       <c r="G2">
         <v>25</v>
       </c>
-      <c r="H2" s="4">
-        <v>42241</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2">
+      <c r="H2" s="2">
+        <v>42998</v>
+      </c>
+      <c r="I2">
         <v>35</v>
       </c>
-      <c r="K2" s="4">
-        <v>42998</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2">
+        <v>42956</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
+        <v>42957</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2">
         <v>42965</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3">
         <v>40</v>
       </c>
-      <c r="H3" s="4">
-        <v>42965</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
+        <v>42957</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2">
         <v>42965</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4">
         <v>9.7</v>
       </c>
       <c r="G4">
         <v>9.7</v>
       </c>
-      <c r="H4" s="4">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
         <v>42965</v>
       </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42982</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42969</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2">
         <v>42980</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5">
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>15</v>
       </c>
-      <c r="H5" s="4">
-        <v>42980</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4">
-        <v>42982</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4">
-        <v>42982</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
+        <v>42985</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2">
         <v>42996</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
-        <v>42996</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
+        <v>42985</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
         <v>42999</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
       <c r="F8">
         <v>40</v>
       </c>
       <c r="G8">
         <v>40</v>
       </c>
-      <c r="H8" s="4">
-        <v>42999</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42986</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43014</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="2">
+        <v>42990</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
         <v>43000</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9">
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>50</v>
       </c>
-      <c r="H9" s="4">
-        <v>43000</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
-        <v>43014</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4">
-        <v>43014</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42998</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43001</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43003</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43018</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Increase" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>起刷日</t>
   </si>
@@ -147,16 +148,52 @@
     <t>31日</t>
   </si>
   <si>
-    <t>卡</t>
-  </si>
-  <si>
-    <t>首申日期</t>
+    <t>Bank</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡种（推倒加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>征信</t>
+  </si>
+  <si>
+    <t>征信电话</t>
+  </si>
+  <si>
+    <t>申请日期</t>
   </si>
   <si>
     <t>渠道/结果</t>
   </si>
   <si>
-    <t>材料</t>
+    <t>材料/备注</t>
   </si>
   <si>
     <t>开卡日期</t>
@@ -168,6 +205,221 @@
     <t>原始额度</t>
   </si>
   <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>全币种国际信用卡（单VISA）</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>上门/成功</t>
+  </si>
+  <si>
+    <t>工牌（官网申请，上门办理）</t>
+  </si>
+  <si>
+    <t>黑羊卡</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>网申/成功</t>
+  </si>
+  <si>
+    <t>聪明卡/金卡</t>
+  </si>
+  <si>
+    <t>长城环球通爱驾汽车卡</t>
+  </si>
+  <si>
+    <t>无（房贷，不需要面签）</t>
+  </si>
+  <si>
+    <t>标准VISA金卡</t>
+  </si>
+  <si>
+    <t>公司/本人</t>
+  </si>
+  <si>
+    <t>无（网点开卡拒，换网点成功开卡，万事达未开通）</t>
+  </si>
+  <si>
+    <t>IN卡/金卡</t>
+  </si>
+  <si>
+    <t>无（5分钟出额度）</t>
+  </si>
+  <si>
+    <t>龙卡全球支付白金卡</t>
+  </si>
+  <si>
+    <t>不确定</t>
+  </si>
+  <si>
+    <t>网点/成功</t>
+  </si>
+  <si>
+    <t>双证（办了ETC）</t>
+  </si>
+  <si>
+    <t>龙卡全球热购卡</t>
+  </si>
+  <si>
+    <t>金穗QQ联名IC卡/金卡</t>
+  </si>
+  <si>
+    <t>双证+收入证明</t>
+  </si>
+  <si>
+    <t>i白金</t>
+  </si>
+  <si>
+    <t>双证+收入证明（慢的一比）</t>
+  </si>
+  <si>
+    <t>龙腾出行白金卡</t>
+  </si>
+  <si>
+    <t>无（芝麻信用781，先面签，后下卡）</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>行卡/白金卡（悠系列）</t>
+  </si>
+  <si>
+    <t>网点</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精致白金卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降级</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准普卡</t>
+    </r>
+  </si>
+  <si>
+    <t>行驶证+收入证明+农行信用卡</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>保险金卡</t>
+  </si>
+  <si>
+    <t>网申</t>
+  </si>
+  <si>
+    <t>无（行驶证，大堂经理手机操作）</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>鼎雅白金卡</t>
+  </si>
+  <si>
+    <t>上门</t>
+  </si>
+  <si>
+    <t>双证+公积金(支付宝)+工牌</t>
+  </si>
+  <si>
+    <t>浙商银行</t>
+  </si>
+  <si>
+    <t>标准金卡</t>
+  </si>
+  <si>
+    <t>双证+公积金(支付宝)+收入证明+光大信用卡</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>京东小白卡</t>
+  </si>
+  <si>
+    <t>无（小白信用98.9，白条15k，金条20k）</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>花旗银行</t>
+  </si>
+  <si>
+    <t>汇丰银行</t>
+  </si>
+  <si>
+    <t>渣打银行</t>
+  </si>
+  <si>
+    <t>温州银行</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
+    <t>杭联银行</t>
+  </si>
+  <si>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>渤海银行</t>
+  </si>
+  <si>
+    <t>台州银行</t>
+  </si>
+  <si>
+    <t>郑州银行</t>
+  </si>
+  <si>
     <t>提额日期</t>
   </si>
   <si>
@@ -177,106 +429,7 @@
     <t>提额原因</t>
   </si>
   <si>
-    <t>二卡日期</t>
-  </si>
-  <si>
-    <t>上门/成功</t>
-  </si>
-  <si>
-    <t>工牌</t>
-  </si>
-  <si>
-    <t>第一次25个月提额</t>
-  </si>
-  <si>
-    <t>网申/成功</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>无(房贷，不需要面签)</t>
-  </si>
-  <si>
-    <t>无（网点开卡遇麻烦）</t>
-  </si>
-  <si>
-    <t>无（5分钟出额度）</t>
-  </si>
-  <si>
-    <t>网点/成功</t>
-  </si>
-  <si>
-    <t>双证</t>
-  </si>
-  <si>
-    <t>双证+收入证明</t>
-  </si>
-  <si>
-    <t>无（芝麻信用781）</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>网点</t>
-  </si>
-  <si>
-    <t>上海银行</t>
-  </si>
-  <si>
-    <t>行驶证+收入证明+农行信用卡</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>网申</t>
-  </si>
-  <si>
-    <t>无（行驶证，大堂经理手机操作）</t>
-  </si>
-  <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
-    <t>上门</t>
-  </si>
-  <si>
-    <t>双证+公积金(支付宝)+工牌</t>
-  </si>
-  <si>
-    <t>浙商银行</t>
-  </si>
-  <si>
-    <t>双证+公积金(支付宝)+收入证明+光大信用卡</t>
-  </si>
-  <si>
-    <t>华夏银行</t>
-  </si>
-  <si>
-    <t>无（小白信用98.9，白条15k，金条20k）</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>花旗银行</t>
-  </si>
-  <si>
-    <t>汇丰银行</t>
-  </si>
-  <si>
-    <t>温州银行</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>杭州银行</t>
+    <t>普提，第一次25个月</t>
   </si>
 </sst>
 </file>
@@ -284,14 +437,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,16 +461,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,8 +498,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,91 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,11 +559,70 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,31 +633,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,19 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,61 +771,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,61 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +824,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,6 +856,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,53 +892,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,6 +913,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,162 +932,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1249,7 +1424,7 @@
   <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1259,46 +1434,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:15">
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="5:15">
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="5:15">
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -1626,7 +1801,7 @@
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L30" t="s">
@@ -1640,7 +1815,7 @@
       <c r="E31" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L31" t="s">
@@ -1743,418 +1918,785 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="44.25" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="8.375" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42227</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42241</v>
+      </c>
+      <c r="J2" s="3">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>1425</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42948</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42956</v>
+      </c>
+      <c r="L3">
+        <v>7427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42951</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42965</v>
+      </c>
+      <c r="J4" s="3">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>9862</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42951</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42965</v>
+      </c>
+      <c r="J5" s="3">
+        <v>9.7</v>
+      </c>
+      <c r="K5">
+        <v>9.7</v>
+      </c>
+      <c r="L5">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42957</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42982</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>4774</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42965</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42980</v>
+      </c>
+      <c r="J7" s="3">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>4481</v>
+      </c>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42984</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1">
+        <v>42996</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>3523</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42984</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1">
+        <v>42997</v>
+      </c>
+      <c r="L9">
+        <v>3527</v>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42984</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="1">
+        <v>42999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>6804</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42986</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43014</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>1259</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42990</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>3190</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43003</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>7693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43006</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43017</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43018</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43018</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>42227</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42241</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C2">
         <v>35</v>
       </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2">
-        <v>42998</v>
-      </c>
-      <c r="I2">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="2">
-        <v>42956</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42957</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42965</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
-        <v>42957</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="2">
-        <v>42965</v>
-      </c>
-      <c r="F4">
-        <v>9.7</v>
-      </c>
-      <c r="G4">
-        <v>9.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2">
-        <v>42965</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2">
-        <v>42982</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2">
-        <v>42969</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42980</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42985</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2">
-        <v>42996</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>42985</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2">
-        <v>42999</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>40</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>42986</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2">
-        <v>43014</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>42990</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43000</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2">
-        <v>42998</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43001</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43003</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43017</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43018</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43018</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>86</v>
+      <c r="D2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="19350" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>起刷日</t>
   </si>
@@ -305,6 +305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>精致白金卡</t>
@@ -426,6 +427,12 @@
     <t>额度</t>
   </si>
   <si>
+    <t>临额</t>
+  </si>
+  <si>
+    <t>幅度</t>
+  </si>
+  <si>
     <t>提额原因</t>
   </si>
   <si>
@@ -437,12 +444,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -462,37 +469,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,34 +506,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -557,11 +520,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,9 +551,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,8 +567,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +584,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,187 +640,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,6 +838,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -861,45 +918,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -913,181 +931,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1424,7 +1434,7 @@
   <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1434,46 +1444,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:15">
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="5:15">
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="5:15">
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -1547,9 +1557,9 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" t="s">
         <v>15</v>
       </c>
@@ -1564,9 +1574,9 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" t="s">
         <v>18</v>
       </c>
@@ -1575,9 +1585,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -1586,9 +1596,9 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" t="s">
         <v>20</v>
       </c>
@@ -1597,9 +1607,9 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -1608,9 +1618,9 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" t="s">
         <v>22</v>
       </c>
@@ -1619,9 +1629,9 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
         <v>23</v>
       </c>
@@ -1636,9 +1646,9 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" t="s">
         <v>25</v>
       </c>
@@ -1647,9 +1657,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" t="s">
         <v>26</v>
       </c>
@@ -1661,9 +1671,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" t="s">
         <v>28</v>
       </c>
@@ -1672,9 +1682,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" t="s">
         <v>29</v>
       </c>
@@ -1689,9 +1699,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" t="s">
         <v>30</v>
       </c>
@@ -1700,9 +1710,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" t="s">
         <v>31</v>
       </c>
@@ -1711,9 +1721,9 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" t="s">
         <v>32</v>
       </c>
@@ -1725,9 +1735,9 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" t="s">
         <v>33</v>
       </c>
@@ -1742,9 +1752,9 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
       <c r="E26" t="s">
         <v>34</v>
       </c>
@@ -1753,9 +1763,9 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" t="s">
         <v>35</v>
       </c>
@@ -1767,9 +1777,9 @@
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
       <c r="E28" t="s">
         <v>36</v>
       </c>
@@ -1781,9 +1791,9 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
       <c r="E29" t="s">
         <v>37</v>
       </c>
@@ -1795,13 +1805,13 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L30" t="s">
@@ -1809,13 +1819,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L31" t="s">
@@ -1823,9 +1833,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" t="s">
         <v>40</v>
       </c>
@@ -1834,9 +1844,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" t="s">
         <v>41</v>
       </c>
@@ -1845,9 +1855,9 @@
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" t="s">
         <v>42</v>
       </c>
@@ -1856,52 +1866,52 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1921,7 +1931,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J18" sqref="J2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1929,12 +1939,12 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="44.25" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
@@ -1947,16 +1957,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F1" t="s">
@@ -1971,7 +1981,7 @@
       <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
       <c r="K1" t="s">
@@ -1986,31 +1996,31 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1">
         <v>42227</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="1">
         <v>42241</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>35</v>
       </c>
       <c r="K2">
@@ -2019,24 +2029,23 @@
       <c r="L2">
         <v>1425</v>
       </c>
-      <c r="M2"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="1">
         <v>42948</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H3" t="s">
@@ -2053,31 +2062,31 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="1">
         <v>42951</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="I4" s="1">
         <v>42965</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>40</v>
       </c>
       <c r="K4">
@@ -2086,37 +2095,37 @@
       <c r="L4">
         <v>9862</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="1">
         <v>42951</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="1">
         <v>42965</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>9.7</v>
       </c>
       <c r="K5">
@@ -2130,31 +2139,31 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>42957</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I6" s="1">
         <v>42982</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>10</v>
       </c>
       <c r="K6">
@@ -2163,37 +2172,37 @@
       <c r="L6">
         <v>4774</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>42965</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="1">
         <v>42980</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>15</v>
       </c>
       <c r="K7">
@@ -2202,37 +2211,37 @@
       <c r="L7">
         <v>4481</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="1">
         <v>42984</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I8" s="1">
         <v>42996</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>10</v>
       </c>
       <c r="K8">
@@ -2241,55 +2250,55 @@
       <c r="L8">
         <v>3523</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="1">
         <v>42984</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="1">
         <v>42997</v>
       </c>
       <c r="L9">
         <v>3527</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="1">
         <v>42984</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="1">
         <v>42999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>40</v>
       </c>
       <c r="K10">
@@ -2298,37 +2307,37 @@
       <c r="L10">
         <v>6804</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="1">
         <v>42986</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="1">
         <v>43014</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>20</v>
       </c>
       <c r="K11">
@@ -2337,37 +2346,37 @@
       <c r="L11">
         <v>1259</v>
       </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="1">
         <v>42990</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="1">
         <v>43000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>50</v>
       </c>
       <c r="K12">
@@ -2376,28 +2385,28 @@
       <c r="L12">
         <v>3190</v>
       </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="1">
         <v>43000</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I13" s="1"/>
@@ -2406,29 +2415,29 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="1">
         <v>43003</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>86</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>3</v>
       </c>
       <c r="K14">
@@ -2448,19 +2457,19 @@
       <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="1">
         <v>43006</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I15" s="1"/>
@@ -2507,7 +2516,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2527,12 +2536,18 @@
         <v>100</v>
       </c>
       <c r="I18" s="1"/>
+      <c r="J18" s="4">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="1"/>
@@ -2590,7 +2605,7 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2662,19 +2677,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="3" max="5" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2684,19 +2700,54 @@
       <c r="D1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1">
+        <v>42241</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1">
         <v>42998</v>
       </c>
-      <c r="C2">
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C5">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>119</v>
+      <c r="E5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="19350" windowHeight="12630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="Increase" sheetId="4" r:id="rId3"/>
+    <sheet name="Account" sheetId="6" r:id="rId4"/>
+    <sheet name="POS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>起刷日</t>
   </si>
@@ -24,10 +26,6 @@
     <t>还款日</t>
   </si>
   <si>
-    <t>加粗为
-贷款</t>
-  </si>
-  <si>
     <t>1日</t>
   </si>
   <si>
@@ -146,6 +144,18 @@
   </si>
   <si>
     <t>31日</t>
+  </si>
+  <si>
+    <t>1.红色为贷款</t>
+  </si>
+  <si>
+    <t>2.加粗为不能修改账单日</t>
+  </si>
+  <si>
+    <t>3.绿色为起刷日和账单日相同</t>
+  </si>
+  <si>
+    <t>4.斜体为56天</t>
   </si>
   <si>
     <t>Bank</t>
@@ -268,7 +278,10 @@
     <t>双证（办了ETC）</t>
   </si>
   <si>
-    <t>龙卡全球热购卡</t>
+    <t>龙卡全球热购卡（Master）</t>
+  </si>
+  <si>
+    <t>同上</t>
   </si>
   <si>
     <t>金穗QQ联名IC卡/金卡</t>
@@ -301,37 +314,10 @@
     <t>上海银行</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>精致白金卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>降级</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准普卡</t>
-    </r>
-  </si>
-  <si>
-    <t>行驶证+收入证明+农行信用卡</t>
+    <t>精致白金卡降级标准普卡</t>
+  </si>
+  <si>
+    <t>行驶证+收入证明+农行信用卡(40K)</t>
   </si>
   <si>
     <t>平安银行</t>
@@ -376,18 +362,18 @@
     <t>无（小白信用98.9，白条15k，金条20k）</t>
   </si>
   <si>
+    <t>花旗银行</t>
+  </si>
+  <si>
+    <t>渣打银行</t>
+  </si>
+  <si>
     <t>工商银行</t>
   </si>
   <si>
-    <t>花旗银行</t>
-  </si>
-  <si>
     <t>汇丰银行</t>
   </si>
   <si>
-    <t>渣打银行</t>
-  </si>
-  <si>
     <t>温州银行</t>
   </si>
   <si>
@@ -421,7 +407,10 @@
     <t>郑州银行</t>
   </si>
   <si>
-    <t>提额日期</t>
+    <t>东亚银行</t>
+  </si>
+  <si>
+    <t>提额日期(加粗为下卡)</t>
   </si>
   <si>
     <t>额度</t>
@@ -436,7 +425,100 @@
     <t>提额原因</t>
   </si>
   <si>
+    <t>提了固额，临额消失</t>
+  </si>
+  <si>
     <t>普提，第一次25个月</t>
+  </si>
+  <si>
+    <t>笔数</t>
+  </si>
+  <si>
+    <t>网付</t>
+  </si>
+  <si>
+    <t>真实</t>
+  </si>
+  <si>
+    <t>付临门</t>
+  </si>
+  <si>
+    <t>超市电器</t>
+  </si>
+  <si>
+    <t>服装百货</t>
+  </si>
+  <si>
+    <t>杭州西湖区思威琪鞋店</t>
+  </si>
+  <si>
+    <t>酒店餐饮</t>
+  </si>
+  <si>
+    <t>杭州清江花园宾馆</t>
+  </si>
+  <si>
+    <t>珠宝娱乐</t>
+  </si>
+  <si>
+    <t>联华超市铭诚店</t>
+  </si>
+  <si>
+    <t>汽车消费</t>
+  </si>
+  <si>
+    <t>上豪摩托车公司</t>
+  </si>
+  <si>
+    <t>随行付</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>百货销售</t>
+  </si>
+  <si>
+    <t>餐饮业</t>
+  </si>
+  <si>
+    <t>上海市北乡缘小吃快餐</t>
+  </si>
+  <si>
+    <t>上海浩楠餐饮服务</t>
+  </si>
+  <si>
+    <t>上海杨四眼小吃店</t>
+  </si>
+  <si>
+    <t>服装日用</t>
+  </si>
+  <si>
+    <t>上海市黄浦区琦米宠物</t>
+  </si>
+  <si>
+    <t>商业服务</t>
+  </si>
+  <si>
+    <t>食品饮料烟草</t>
+  </si>
+  <si>
+    <t>上海星巴克</t>
+  </si>
+  <si>
+    <t>休闲娱乐</t>
+  </si>
+  <si>
+    <t>上海市杨浦区天乐酒吧</t>
+  </si>
+  <si>
+    <t>住宿业</t>
+  </si>
+  <si>
+    <t>上海市星豪岛住宿宾馆</t>
+  </si>
+  <si>
+    <t>上海市惠思慧酒店</t>
   </si>
 </sst>
 </file>
@@ -445,13 +527,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +547,61 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,114 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +643,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -621,12 +734,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -640,37 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +777,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,19 +891,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,103 +915,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,15 +938,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -862,7 +960,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,38 +1024,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,180 +1043,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,6 +1293,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1434,484 +1567,518 @@
   <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F1" sqref="F1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="2" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:15">
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="5:15">
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="5:15">
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="5:12">
       <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="5:12">
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="5:12">
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="5:12">
       <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="L8" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="5:12">
-      <c r="E9" t="s">
+      <c r="M9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="G21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="5:12">
-      <c r="E10" t="s">
+    <row r="26" spans="2:12">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" t="s">
+      <c r="L31" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="L32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" t="s">
+    <row r="33" spans="2:12">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" t="s">
         <v>40</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" t="s">
+    <row r="34" spans="2:12">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" t="s">
+    <row r="35" spans="2:5">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1930,8 +2097,8 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J2:J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K4:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1944,51 +2111,51 @@
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="44.25" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="6" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="5" customWidth="1"/>
     <col min="15" max="15" width="6.625" customWidth="1"/>
     <col min="16" max="16" width="15.625" customWidth="1"/>
     <col min="17" max="17" width="8.375" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="5" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N1"/>
     </row>
@@ -1996,66 +2163,66 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5">
         <v>42227</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="G2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="5">
         <v>42241</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>35</v>
       </c>
       <c r="K2">
         <v>25</v>
       </c>
       <c r="L2">
+        <v>7427</v>
+      </c>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42948</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="5">
+        <v>42956</v>
+      </c>
+      <c r="L3">
         <v>1425</v>
-      </c>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1">
-        <v>42948</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1">
-        <v>42956</v>
-      </c>
-      <c r="L3">
-        <v>7427</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2063,30 +2230,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5">
         <v>42951</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="5">
         <v>42965</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>40</v>
       </c>
       <c r="K4">
@@ -2095,37 +2262,37 @@
       <c r="L4">
         <v>9862</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>42951</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="5">
         <v>42965</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>9.7</v>
       </c>
       <c r="K5">
@@ -2139,31 +2306,31 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="1">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5">
         <v>42957</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="G6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="5">
         <v>42982</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <v>10</v>
       </c>
       <c r="K6">
@@ -2172,37 +2339,37 @@
       <c r="L6">
         <v>4774</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1">
+        <v>63</v>
+      </c>
+      <c r="F7" s="5">
         <v>42965</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="5">
         <v>42980</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>15</v>
       </c>
       <c r="K7">
@@ -2211,37 +2378,37 @@
       <c r="L7">
         <v>4481</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>70</v>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="1">
+        <v>74</v>
+      </c>
+      <c r="F8" s="5">
         <v>42984</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="G8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="5">
         <v>42996</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>10</v>
       </c>
       <c r="K8">
@@ -2250,55 +2417,59 @@
       <c r="L8">
         <v>3523</v>
       </c>
-      <c r="S8" s="5"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="5">
         <v>42984</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1">
+      <c r="G9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="5">
         <v>42997</v>
       </c>
       <c r="L9">
         <v>3527</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5">
+        <v>42984</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="1">
-        <v>42984</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="5">
         <v>42999</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <v>40</v>
       </c>
       <c r="K10">
@@ -2307,37 +2478,37 @@
       <c r="L10">
         <v>6804</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1">
+        <v>63</v>
+      </c>
+      <c r="F11" s="5">
         <v>42986</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="G11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="5">
         <v>43014</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>20</v>
       </c>
       <c r="K11">
@@ -2346,37 +2517,37 @@
       <c r="L11">
         <v>1259</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>79</v>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1">
+        <v>59</v>
+      </c>
+      <c r="F12" s="5">
         <v>42990</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="5">
         <v>43000</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <v>50</v>
       </c>
       <c r="K12">
@@ -2385,59 +2556,57 @@
       <c r="L12">
         <v>3190</v>
       </c>
-      <c r="S12" s="5"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
+      <c r="B13" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" s="5">
         <v>43000</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="1"/>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>84</v>
+      <c r="B14" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1">
+        <v>69</v>
+      </c>
+      <c r="F14" s="5">
         <v>43003</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4">
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6">
         <v>3</v>
       </c>
       <c r="K14">
@@ -2452,91 +2621,91 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1">
+        <v>59</v>
+      </c>
+      <c r="F15" s="5">
         <v>43006</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="G15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="1">
+        <v>96</v>
+      </c>
+      <c r="F16" s="5">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="1">
+        <v>103</v>
+      </c>
+      <c r="F18" s="5">
         <v>43018</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4">
+        <v>104</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6">
         <v>30</v>
       </c>
       <c r="K18">
@@ -2547,26 +2716,26 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>103</v>
+      <c r="B21" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2574,7 +2743,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2582,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2590,7 +2759,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2598,15 +2767,15 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>108</v>
+      <c r="B26" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2614,7 +2783,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2622,7 +2791,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2630,7 +2799,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2638,7 +2807,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2646,7 +2815,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2654,7 +2823,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2662,11 +2831,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="1"/>
+      <c r="F52" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2677,41 +2854,42 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="5" width="4.625" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
-        <v>116</v>
+      <c r="B1" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
         <v>42241</v>
       </c>
       <c r="C2">
@@ -2719,35 +2897,580 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>42956</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5">
         <v>42998</v>
       </c>
       <c r="D4">
         <v>62</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>0.4</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42965</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42965</v>
+      </c>
+      <c r="C7">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>42980</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>42982</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>42996</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42999</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43000</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43014</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="75" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21">
+      <c r="B1" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1">
+        <v>42979</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1">
+        <v>43009</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1">
+        <v>43040</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="1">
+        <v>43070</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="2:21">
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>23</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12630" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>起刷日</t>
   </si>
@@ -59,6 +59,9 @@
     <t>7日</t>
   </si>
   <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
     <t>农业银行</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>10日</t>
+  </si>
+  <si>
+    <t>上海银行</t>
   </si>
   <si>
     <t>11日</t>
@@ -311,9 +317,6 @@
     <t>网点</t>
   </si>
   <si>
-    <t>上海银行</t>
-  </si>
-  <si>
     <t>精致白金卡降级标准普卡</t>
   </si>
   <si>
@@ -350,10 +353,7 @@
     <t>标准金卡</t>
   </si>
   <si>
-    <t>双证+公积金(支付宝)+收入证明+光大信用卡</t>
-  </si>
-  <si>
-    <t>华夏银行</t>
+    <t>双证+公积金(支付宝)+收入证明+光大信用卡，问了一大堆问题</t>
   </si>
   <si>
     <t>京东小白卡</t>
@@ -362,6 +362,9 @@
     <t>无（小白信用98.9，白条15k，金条20k）</t>
   </si>
   <si>
+    <t>O215</t>
+  </si>
+  <si>
     <t>花旗银行</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
     <t>提额原因</t>
   </si>
   <si>
+    <t>第一次下载APP就有了</t>
+  </si>
+  <si>
     <t>提了固额，临额消失</t>
   </si>
   <si>
@@ -450,6 +456,9 @@
   </si>
   <si>
     <t>杭州西湖区思威琪鞋店</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>酒店餐饮</t>
@@ -526,12 +535,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -581,30 +590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -620,15 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,14 +620,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,8 +672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,32 +697,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,6 +715,22 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,49 +756,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,97 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +816,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,45 +947,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1030,6 +1000,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1043,34 +1052,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,112 +1088,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,7 +1213,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1218,9 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1566,53 +1575,53 @@
   <sheetPr/>
   <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:15">
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="13"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
     <row r="2" spans="5:15">
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="13"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="5:15">
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1629,7 +1638,7 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L5" t="s">
@@ -1684,8 +1693,11 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -1695,390 +1707,405 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
       </c>
       <c r="M11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M19">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M24">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M25">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>42</v>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>43</v>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>44</v>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>45</v>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2098,7 +2125,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K4:K18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2109,9 +2136,9 @@
     <col min="4" max="4" width="5.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="44.25" customWidth="1"/>
+    <col min="8" max="8" width="52.875" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="7" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
@@ -2125,37 +2152,37 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N1"/>
     </row>
@@ -2163,31 +2190,31 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>57</v>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5">
         <v>42227</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>61</v>
+      <c r="G2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="5">
         <v>42241</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>35</v>
       </c>
       <c r="K2">
@@ -2199,24 +2226,24 @@
       <c r="N2"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>62</v>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5">
         <v>42948</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>64</v>
+      <c r="G3" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3" s="5">
         <v>42956</v>
@@ -2232,28 +2259,28 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>65</v>
+      <c r="C4" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5">
         <v>42951</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>63</v>
+      <c r="G4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="I4" s="5">
         <v>42965</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>40</v>
       </c>
       <c r="K4">
@@ -2262,37 +2289,37 @@
       <c r="L4">
         <v>9862</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5">
         <v>42951</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>67</v>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="I5" s="5">
         <v>42965</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>9.7</v>
       </c>
       <c r="K5">
@@ -2306,31 +2333,31 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>68</v>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="5">
         <v>42957</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>70</v>
+      <c r="G6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="I6" s="5">
         <v>42982</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>10</v>
       </c>
       <c r="K6">
@@ -2339,37 +2366,37 @@
       <c r="L6">
         <v>4774</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>71</v>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" s="5">
         <v>42965</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>72</v>
+      <c r="G7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="I7" s="5">
         <v>42980</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>15</v>
       </c>
       <c r="K7">
@@ -2378,37 +2405,37 @@
       <c r="L7">
         <v>4481</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>73</v>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5">
         <v>42984</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>76</v>
+      <c r="G8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="I8" s="5">
         <v>42996</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>10</v>
       </c>
       <c r="K8">
@@ -2417,21 +2444,21 @@
       <c r="L8">
         <v>3523</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>77</v>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F9" s="5">
         <v>42984</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>78</v>
+      <c r="G9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="I9" s="5">
         <v>42997</v>
@@ -2439,37 +2466,37 @@
       <c r="L9">
         <v>3527</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5">
         <v>42984</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>80</v>
+      <c r="G10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="I10" s="5">
         <v>42999</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>40</v>
       </c>
       <c r="K10">
@@ -2478,37 +2505,37 @@
       <c r="L10">
         <v>6804</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" s="5">
         <v>42986</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>82</v>
+      <c r="G11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I11" s="5">
         <v>43014</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>20</v>
       </c>
       <c r="K11">
@@ -2517,37 +2544,37 @@
       <c r="L11">
         <v>1259</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>83</v>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5">
         <v>42990</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>84</v>
+      <c r="G12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="I12" s="5">
         <v>43000</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="7">
         <v>50</v>
       </c>
       <c r="K12">
@@ -2556,27 +2583,26 @@
       <c r="L12">
         <v>3190</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>85</v>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>88</v>
+      </c>
       <c r="F13" s="5">
         <v>43000</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>80</v>
+      <c r="G13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2584,29 +2610,31 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>89</v>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="5">
         <v>43003</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6">
+      <c r="G14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="5">
+        <v>43024</v>
+      </c>
+      <c r="J14" s="7">
         <v>3</v>
       </c>
       <c r="K14">
@@ -2621,25 +2649,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5">
         <v>43006</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>94</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2648,19 +2676,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2669,47 +2697,52 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="5">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F18" s="5">
         <v>43018</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6">
+      <c r="I18" s="5">
+        <v>43026</v>
+      </c>
+      <c r="J18" s="7">
         <v>30</v>
       </c>
       <c r="K18">
         <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2717,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="5"/>
       <c r="I19" s="5"/>
@@ -2727,15 +2760,15 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>107</v>
+      <c r="B21" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2743,7 +2776,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2751,7 +2784,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2759,7 +2792,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2767,15 +2800,15 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>112</v>
+      <c r="B26" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2783,7 +2816,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2791,7 +2824,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2799,7 +2832,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2807,7 +2840,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2815,7 +2848,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2823,7 +2856,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2831,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2839,7 +2872,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="6:6">
@@ -2857,7 +2890,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2865,38 +2898,38 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="5" width="4.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>42241</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" s="5">
         <v>42956</v>
       </c>
@@ -2904,6 +2937,9 @@
         <v>30</v>
       </c>
       <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5">
@@ -2914,7 +2950,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2928,14 +2964,14 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>42965</v>
       </c>
       <c r="C6">
@@ -2944,9 +2980,9 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6">
         <v>42965</v>
       </c>
       <c r="C7">
@@ -2955,9 +2991,9 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6">
         <v>42980</v>
       </c>
       <c r="C8">
@@ -2966,9 +3002,9 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6">
         <v>42982</v>
       </c>
       <c r="C9">
@@ -2979,7 +3015,7 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>42996</v>
       </c>
       <c r="C10">
@@ -2988,9 +3024,9 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
         <v>42999</v>
       </c>
       <c r="C11">
@@ -3001,7 +3037,7 @@
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>43000</v>
       </c>
       <c r="C12">
@@ -3010,9 +3046,9 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
         <v>43014</v>
       </c>
       <c r="C13">
@@ -3021,7 +3057,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43024</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3029,7 +3068,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43025</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -3046,7 +3088,7 @@
   <sheetPr/>
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -3089,64 +3131,64 @@
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
         <v>130</v>
       </c>
-      <c r="J2" t="s">
-        <v>128</v>
-      </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" t="s">
         <v>130</v>
       </c>
-      <c r="N2" t="s">
-        <v>128</v>
-      </c>
       <c r="O2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="s">
         <v>130</v>
       </c>
-      <c r="R2" t="s">
-        <v>128</v>
-      </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3209,7 +3251,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -3226,7 +3268,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -3243,7 +3285,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>35</v>
@@ -3277,7 +3319,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3311,7 +3353,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3328,12 +3370,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3397,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3368,109 +3410,112 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12630" activeTab="3"/>
+    <workbookView windowWidth="19350" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>起刷日</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>10日</t>
+  </si>
+  <si>
+    <t>上海银行</t>
   </si>
   <si>
     <t>11日</t>
@@ -311,9 +314,6 @@
     <t>网点</t>
   </si>
   <si>
-    <t>上海银行</t>
-  </si>
-  <si>
     <t>精致白金卡降级标准普卡</t>
   </si>
   <si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>无（小白信用98.9，白条15k，金条20k）</t>
+  </si>
+  <si>
+    <t>O215</t>
   </si>
   <si>
     <t>花旗银行</t>
@@ -527,11 +530,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -581,112 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -710,6 +607,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -718,8 +636,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,7 +750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,49 +780,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,13 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +828,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,67 +918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,17 +944,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,36 +958,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,11 +988,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,157 +1026,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,13 +1207,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1218,9 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1566,8 +1566,8 @@
   <sheetPr/>
   <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1579,43 +1579,43 @@
   <sheetData>
     <row r="1" spans="5:15">
       <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="5:15">
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="5:15">
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -1684,7 +1684,7 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
@@ -1725,15 +1725,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:13">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>18</v>
       </c>
+      <c r="K13" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" t="s">
         <v>18</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -1741,10 +1747,10 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -1752,10 +1758,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -1763,10 +1769,10 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -1774,16 +1780,16 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
         <v>23</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1794,10 +1800,13 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -1805,13 +1814,13 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="K19" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -1822,10 +1831,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -1833,16 +1842,16 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -1850,10 +1859,10 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -1861,10 +1870,10 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1872,13 +1881,13 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M24">
         <v>40</v>
@@ -1889,16 +1898,16 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25">
         <v>10</v>
@@ -1909,10 +1918,10 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1920,13 +1929,13 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27">
         <v>50</v>
@@ -1937,13 +1946,13 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -1951,13 +1960,13 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s">
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M29">
         <v>20</v>
@@ -1968,13 +1977,13 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -1982,13 +1991,13 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -1996,10 +2005,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -2007,10 +2016,10 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -2018,10 +2027,10 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2029,7 +2038,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2037,7 +2046,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2045,7 +2054,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2053,7 +2062,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2098,7 +2107,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K4:K18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2125,37 +2134,37 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1"/>
     </row>
@@ -2167,22 +2176,22 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5">
         <v>42227</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="5">
         <v>42241</v>
@@ -2201,22 +2210,22 @@
     <row r="3" spans="2:12">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="5">
         <v>42948</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
         <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
       </c>
       <c r="I3" s="5">
         <v>42956</v>
@@ -2233,22 +2242,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="5">
         <v>42951</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="5">
         <v>42965</v>
@@ -2272,22 +2281,22 @@
         <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="5">
         <v>42951</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="5">
         <v>42965</v>
@@ -2307,25 +2316,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="5">
         <v>42957</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="5">
         <v>42982</v>
@@ -2346,25 +2355,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="5">
         <v>42965</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="5">
         <v>42980</v>
@@ -2388,22 +2397,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5">
         <v>42984</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="5">
         <v>42996</v>
@@ -2422,16 +2431,16 @@
     <row r="9" spans="2:19">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="5">
         <v>42984</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="5">
         <v>42997</v>
@@ -2449,22 +2458,22 @@
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="5">
         <v>42984</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" s="5">
         <v>42999</v>
@@ -2488,22 +2497,22 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="5">
         <v>42986</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="5">
         <v>43014</v>
@@ -2527,22 +2536,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="5">
         <v>42990</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12" s="5">
         <v>43000</v>
@@ -2563,20 +2572,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>87</v>
+      </c>
       <c r="F13" s="5">
         <v>43000</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2585,22 +2593,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="5">
         <v>43003</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>90</v>
@@ -2627,10 +2635,10 @@
         <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="5">
         <v>43006</v>
@@ -2685,7 +2693,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2711,13 +2719,16 @@
       <c r="K18">
         <v>30</v>
       </c>
+      <c r="L18" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="5"/>
       <c r="I19" s="5"/>
@@ -2727,7 +2738,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2735,7 +2746,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2743,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2751,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2759,7 +2770,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2767,7 +2778,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2775,7 +2786,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2783,7 +2794,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2791,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2799,7 +2810,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2807,7 +2818,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2815,7 +2826,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2823,7 +2834,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2831,7 +2842,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2839,7 +2850,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="6:6">
@@ -2870,19 +2881,19 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2914,7 +2925,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2928,7 +2939,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2955,7 +2966,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>42980</v>
@@ -2966,7 +2977,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5">
         <v>42982</v>
@@ -3021,7 +3032,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3046,7 +3057,7 @@
   <sheetPr/>
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -3089,64 +3100,64 @@
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
         <v>129</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
         <v>129</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" t="s">
         <v>130</v>
       </c>
-      <c r="J2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
         <v>129</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s">
         <v>130</v>
       </c>
-      <c r="N2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" t="s">
         <v>130</v>
       </c>
-      <c r="R2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S2" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" t="s">
-        <v>129</v>
-      </c>
       <c r="U2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3226,7 +3237,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -3243,7 +3254,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>35</v>
@@ -3328,7 +3339,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3368,109 +3379,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12630" activeTab="2"/>
+    <workbookView windowWidth="19350" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>7日</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
   </si>
   <si>
     <t>农业银行</t>
@@ -353,9 +356,6 @@
     <t>双证+公积金(支付宝)+收入证明+光大信用卡</t>
   </si>
   <si>
-    <t>华夏银行</t>
-  </si>
-  <si>
     <t>京东小白卡</t>
   </si>
   <si>
@@ -431,7 +431,7 @@
     <t>提了固额，临额消失</t>
   </si>
   <si>
-    <t>普提，第一次25个月</t>
+    <t>第一次25个月正常提</t>
   </si>
   <si>
     <t>笔数</t>
@@ -529,12 +529,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -586,7 +586,43 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,8 +636,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,68 +715,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,44 +723,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,7 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,37 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +804,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,55 +876,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +906,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,10 +946,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -966,15 +964,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,6 +992,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1027,17 +1031,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,148 +1046,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,13 +1207,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1566,8 +1566,8 @@
   <sheetPr/>
   <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1684,8 +1684,11 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -1699,16 +1702,16 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1719,10 +1722,10 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -1730,13 +1733,13 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
         <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1747,10 +1750,10 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -1758,10 +1761,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -1769,10 +1772,10 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -1780,16 +1783,16 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
         <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1800,13 +1803,13 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -1814,13 +1817,13 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
         <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -1831,10 +1834,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -1842,16 +1845,16 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -1859,10 +1862,10 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -1870,10 +1873,10 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1881,13 +1884,13 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M24">
         <v>40</v>
@@ -1898,16 +1901,16 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M25">
         <v>10</v>
@@ -1918,10 +1921,10 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1929,13 +1932,13 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27">
         <v>50</v>
@@ -1946,29 +1949,35 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
         <v>20</v>
       </c>
     </row>
@@ -1977,13 +1986,13 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -1991,13 +2000,13 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -2005,10 +2014,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -2016,10 +2025,10 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -2027,10 +2036,10 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2038,7 +2047,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2046,7 +2055,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2054,7 +2063,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2062,7 +2071,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2107,7 +2116,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2134,37 +2143,37 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1"/>
     </row>
@@ -2176,22 +2185,22 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5">
         <v>42227</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="5">
         <v>42241</v>
@@ -2210,22 +2219,22 @@
     <row r="3" spans="2:12">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5">
         <v>42948</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
         <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
       </c>
       <c r="I3" s="5">
         <v>42956</v>
@@ -2242,22 +2251,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5">
         <v>42951</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="I4" s="5">
         <v>42965</v>
@@ -2278,25 +2287,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5">
         <v>42951</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" s="5">
         <v>42965</v>
@@ -2316,25 +2325,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="5">
         <v>42957</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5">
         <v>42982</v>
@@ -2355,25 +2364,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="5">
         <v>42965</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" s="5">
         <v>42980</v>
@@ -2397,22 +2406,20 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5">
         <v>42984</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="5">
         <v>42996</v>
@@ -2431,16 +2438,16 @@
     <row r="9" spans="2:19">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5">
         <v>42984</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="5">
         <v>42997</v>
@@ -2455,25 +2462,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5">
         <v>42984</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="5">
         <v>42999</v>
@@ -2494,25 +2499,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="5">
         <v>42986</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="5">
         <v>43014</v>
@@ -2536,22 +2539,20 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5">
         <v>42990</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" s="5">
         <v>43000</v>
@@ -2572,19 +2573,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="5">
         <v>43000</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2593,27 +2594,27 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="5">
         <v>43003</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="I14" s="5">
+        <v>43024</v>
+      </c>
       <c r="J14" s="6">
         <v>3</v>
       </c>
@@ -2629,25 +2630,23 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5">
         <v>43006</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2656,19 +2655,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2677,19 +2676,19 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="5">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2698,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -2707,12 +2706,14 @@
         <v>43018</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5">
+        <v>43026</v>
+      </c>
       <c r="J18" s="6">
         <v>30</v>
       </c>
@@ -2867,8 +2868,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2955,7 +2956,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>42965</v>
@@ -2966,7 +2967,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5">
         <v>42980</v>
@@ -2977,7 +2978,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
         <v>42982</v>
@@ -2999,7 +3000,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>42999</v>
@@ -3021,7 +3022,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5">
         <v>43014</v>
@@ -3032,7 +3033,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
         <v>43024</v>
@@ -3043,7 +3044,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>43026</v>
@@ -3226,7 +3227,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -3243,7 +3244,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -3260,7 +3261,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>35</v>
@@ -3294,7 +3295,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3328,7 +3329,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3345,12 +3346,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -38,93 +38,93 @@
     <t>3日</t>
   </si>
   <si>
+    <t>4日</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>6日</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>7日</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>8日</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>9日</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>10日</t>
+  </si>
+  <si>
+    <t>11日</t>
+  </si>
+  <si>
+    <t>12日</t>
+  </si>
+  <si>
+    <t>13日</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>14日</t>
+  </si>
+  <si>
+    <t>15日</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>16日</t>
+  </si>
+  <si>
+    <t>17日</t>
+  </si>
+  <si>
+    <t>18日</t>
+  </si>
+  <si>
+    <t>19日</t>
+  </si>
+  <si>
+    <t>20日</t>
+  </si>
+  <si>
+    <t>21日</t>
+  </si>
+  <si>
+    <t>22日</t>
+  </si>
+  <si>
     <t>建设银行</t>
   </si>
   <si>
-    <t>4日</t>
-  </si>
-  <si>
-    <t>5日</t>
-  </si>
-  <si>
-    <t>6日</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>7日</t>
-  </si>
-  <si>
-    <t>华夏银行</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>8日</t>
-  </si>
-  <si>
-    <t>中信银行</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>9日</t>
-  </si>
-  <si>
-    <t>10日</t>
-  </si>
-  <si>
-    <t>上海银行</t>
-  </si>
-  <si>
-    <t>11日</t>
-  </si>
-  <si>
-    <t>12日</t>
-  </si>
-  <si>
-    <t>13日</t>
-  </si>
-  <si>
-    <t>14日</t>
-  </si>
-  <si>
-    <t>民生银行</t>
-  </si>
-  <si>
-    <t>15日</t>
-  </si>
-  <si>
-    <t>16日</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>17日</t>
-  </si>
-  <si>
-    <t>18日</t>
-  </si>
-  <si>
-    <t>19日</t>
-  </si>
-  <si>
-    <t>20日</t>
-  </si>
-  <si>
-    <t>21日</t>
-  </si>
-  <si>
-    <t>22日</t>
-  </si>
-  <si>
     <t>23日</t>
   </si>
   <si>
@@ -158,7 +158,7 @@
     <t>2.加粗为不能修改账单日</t>
   </si>
   <si>
-    <t>3.绿色为起刷日和账单日相同</t>
+    <t>3.下划线为起刷日和账单日不同</t>
   </si>
   <si>
     <t>4.斜体为56天</t>
@@ -529,12 +529,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -553,16 +553,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,19 +586,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,38 +600,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,9 +630,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +677,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,38 +714,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,7 +752,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,25 +788,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,25 +896,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,109 +926,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,11 +946,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,21 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -992,17 +985,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,8 +1012,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,148 +1048,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,7 +1569,7 @@
   <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1629,7 +1631,7 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="L5" t="s">
@@ -1640,41 +1642,40 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
       <c r="L6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="5:12">
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F7" s="11"/>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="5:12">
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F8" s="11"/>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
       <c r="L9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9">
         <v>35</v>
@@ -1682,16 +1683,16 @@
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="K10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10">
         <v>40</v>
@@ -1702,47 +1703,49 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="K12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="L13" t="s">
         <v>19</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -1750,10 +1753,11 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -1761,72 +1765,74 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="L15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="K16" t="s">
         <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>25</v>
+      <c r="F17" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="L17" t="s">
         <v>24</v>
       </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
       <c r="L18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L19" t="s">
         <v>27</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -1834,10 +1840,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -1845,16 +1851,16 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -1862,10 +1868,12 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -1873,10 +1881,12 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1884,13 +1894,15 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="K24" t="s">
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M24">
         <v>40</v>
@@ -1901,16 +1913,17 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="K25" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>6</v>
-      </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25">
         <v>10</v>
@@ -1935,7 +1948,7 @@
         <v>36</v>
       </c>
       <c r="K27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L27" t="s">
         <v>36</v>
@@ -1944,40 +1957,43 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:13">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" t="s">
         <v>37</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
+      <c r="F28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
       </c>
       <c r="L28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="2:14">
+      <c r="M28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" t="s">
         <v>38</v>
       </c>
-      <c r="J29" t="s">
-        <v>13</v>
+      <c r="F29" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" t="s">
         <v>38</v>
       </c>
       <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="N29">
         <v>20</v>
       </c>
     </row>
@@ -1989,7 +2005,7 @@
         <v>39</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
         <v>39</v>
@@ -2003,7 +2019,7 @@
         <v>40</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31" t="s">
         <v>40</v>
@@ -2182,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>59</v>
@@ -2287,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>68</v>
@@ -2325,7 +2341,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>70</v>
@@ -2364,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>73</v>
@@ -2403,12 +2419,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
@@ -2462,12 +2477,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
         <v>76</v>
       </c>
@@ -2499,12 +2513,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>65</v>
       </c>
@@ -2536,12 +2549,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>61</v>
       </c>
@@ -2594,12 +2606,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
@@ -2635,7 +2646,6 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -2899,7 +2909,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>42241</v>
@@ -2956,7 +2966,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>42965</v>
@@ -2967,7 +2977,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>42980</v>
@@ -2978,7 +2988,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
         <v>42982</v>
@@ -2989,7 +2999,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5">
         <v>42996</v>
@@ -3000,7 +3010,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5">
         <v>42999</v>
@@ -3011,7 +3021,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5">
         <v>43000</v>
@@ -3022,7 +3032,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>43014</v>
@@ -3033,7 +3043,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5">
         <v>43024</v>
@@ -3044,7 +3054,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>43026</v>
@@ -3065,7 +3075,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3169,7 +3179,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -3227,7 +3237,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -3244,7 +3254,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -3261,7 +3271,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>35</v>
@@ -3278,7 +3288,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -3295,7 +3305,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3312,7 +3322,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -3329,7 +3339,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3346,12 +3356,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19350" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>修改银行</t>
+  </si>
+  <si>
+    <t>账单日</t>
+  </si>
   <si>
     <t>起刷日</t>
   </si>
@@ -26,6 +35,12 @@
     <t>还款日</t>
   </si>
   <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
     <t>1日</t>
   </si>
   <si>
@@ -47,9 +62,6 @@
     <t>6日</t>
   </si>
   <si>
-    <t>光大银行</t>
-  </si>
-  <si>
     <t>招商银行</t>
   </si>
   <si>
@@ -120,9 +132,6 @@
   </si>
   <si>
     <t>22日</t>
-  </si>
-  <si>
-    <t>建设银行</t>
   </si>
   <si>
     <t>23日</t>
@@ -528,13 +537,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -587,13 +597,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -602,21 +605,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -630,6 +626,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -637,31 +648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +666,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,11 +712,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,25 +726,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,7 +762,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,73 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,31 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +876,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,54 +953,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1018,6 +980,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1033,13 +1021,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,152 +1058,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,13 +1219,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1223,6 +1233,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1566,36 +1582,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="4" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15">
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="9"/>
       <c r="F1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="5:15">
+      <c r="L1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10">
+        <v>43026</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11">
+        <v>25</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1603,11 +1639,20 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="5:15">
+      <c r="L2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10">
+        <v>43064</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1615,67 +1660,67 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="5:12">
       <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="5:12">
       <c r="E6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="5:12">
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="F7" s="13"/>
       <c r="L7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="5:12">
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M9">
         <v>35</v>
@@ -1683,36 +1728,34 @@
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="4:13">
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1723,14 +1766,14 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="K12" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="K12" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1741,11 +1784,11 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -1753,11 +1796,11 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="13"/>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -1765,11 +1808,11 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -1777,14 +1820,14 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="F16" s="13"/>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M16">
         <v>15</v>
@@ -1795,13 +1838,13 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1809,16 +1852,16 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -1829,10 +1872,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -1840,10 +1883,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -1851,16 +1894,16 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -1868,12 +1911,12 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -1881,12 +1924,12 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1894,15 +1937,15 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="K24" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M24">
         <v>40</v>
@@ -1913,17 +1956,17 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G25" s="3"/>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M25">
         <v>10</v>
@@ -1934,10 +1977,10 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1945,13 +1988,13 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M27">
         <v>50</v>
@@ -1962,16 +2005,16 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M28">
         <v>30</v>
@@ -1982,16 +2025,16 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M29">
         <v>20</v>
@@ -2002,13 +2045,13 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -2016,13 +2059,13 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -2030,10 +2073,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -2041,10 +2084,10 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -2052,10 +2095,10 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2063,7 +2106,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2071,7 +2114,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2079,7 +2122,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2087,7 +2130,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2096,14 +2139,12 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="7"/>
+    <row r="40" spans="3:5">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="7"/>
+    <row r="41" spans="3:5">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2159,37 +2200,37 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N1"/>
     </row>
@@ -2198,25 +2239,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5">
         <v>42227</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5">
         <v>42241</v>
@@ -2235,22 +2276,22 @@
     <row r="3" spans="2:12">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5">
         <v>42948</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I3" s="5">
         <v>42956</v>
@@ -2264,25 +2305,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5">
         <v>42951</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I4" s="5">
         <v>42965</v>
@@ -2303,25 +2344,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F5" s="5">
         <v>42951</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5">
         <v>42965</v>
@@ -2341,25 +2382,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5">
         <v>42957</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5">
         <v>42982</v>
@@ -2380,25 +2421,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7" s="5">
         <v>42965</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I7" s="5">
         <v>42980</v>
@@ -2419,22 +2460,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F8" s="5">
         <v>42984</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="5">
         <v>42996</v>
@@ -2453,16 +2494,16 @@
     <row r="9" spans="2:19">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="5">
         <v>42984</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I9" s="5">
         <v>42997</v>
@@ -2477,22 +2518,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5">
         <v>42984</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" s="5">
         <v>42999</v>
@@ -2513,22 +2554,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" s="5">
         <v>42986</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I11" s="5">
         <v>43014</v>
@@ -2549,22 +2590,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F12" s="5">
         <v>42990</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I12" s="5">
         <v>43000</v>
@@ -2585,19 +2626,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5">
         <v>43000</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2606,22 +2647,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="5">
         <v>43003</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14" s="5">
         <v>43024</v>
@@ -2641,22 +2682,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" s="5">
         <v>43006</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2665,19 +2706,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2686,19 +2727,19 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F17" s="5">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2707,19 +2748,19 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F18" s="5">
         <v>43018</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I18" s="5">
         <v>43026</v>
@@ -2731,7 +2772,7 @@
         <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2739,7 +2780,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" s="5"/>
       <c r="I19" s="5"/>
@@ -2749,7 +2790,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2757,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2765,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2773,7 +2814,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2781,7 +2822,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2789,7 +2830,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2797,7 +2838,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2805,7 +2846,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2813,7 +2854,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2821,7 +2862,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2829,7 +2870,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2837,7 +2878,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2845,7 +2886,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2853,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2861,7 +2902,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="6:6">
@@ -2892,24 +2933,24 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
         <v>42241</v>
@@ -2936,7 +2977,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2950,12 +2991,12 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>42965</v>
@@ -2966,7 +3007,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <v>42965</v>
@@ -2977,7 +3018,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5">
         <v>42980</v>
@@ -2988,7 +3029,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5">
         <v>42982</v>
@@ -2999,7 +3040,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5">
         <v>42996</v>
@@ -3010,7 +3051,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>42999</v>
@@ -3021,7 +3062,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5">
         <v>43000</v>
@@ -3032,7 +3073,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5">
         <v>43014</v>
@@ -3043,7 +3084,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5">
         <v>43024</v>
@@ -3054,7 +3095,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5">
         <v>43026</v>
@@ -3117,69 +3158,69 @@
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -3208,7 +3249,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -3237,7 +3278,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -3254,7 +3295,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -3271,7 +3312,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>35</v>
@@ -3288,7 +3329,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -3305,7 +3346,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3322,7 +3363,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -3339,7 +3380,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3356,12 +3397,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3396,109 +3437,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/account-withdraw.xlsx
+++ b/account-withdraw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12630"/>
+    <workbookView windowWidth="19380" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>日期</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>5日</t>
+  </si>
+  <si>
+    <t>浙商银行</t>
   </si>
   <si>
     <t>6日</t>
@@ -314,7 +317,7 @@
     <t>龙腾出行白金卡</t>
   </si>
   <si>
-    <t>无（芝麻信用781，先面签，后下卡）</t>
+    <t>公积金（芝麻信用781，先面签，后下卡）</t>
   </si>
   <si>
     <t>兴业银行</t>
@@ -326,7 +329,19 @@
     <t>网点</t>
   </si>
   <si>
-    <t>精致白金卡降级标准普卡</t>
+    <r>
+      <t>精致白金卡降级</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准普卡</t>
+    </r>
   </si>
   <si>
     <t>行驶证+收入证明+农行信用卡(40K)</t>
@@ -353,16 +368,16 @@
     <t>上门</t>
   </si>
   <si>
-    <t>双证+公积金(支付宝)+工牌</t>
-  </si>
-  <si>
-    <t>浙商银行</t>
+    <t>双证+公积金+工牌</t>
   </si>
   <si>
     <t>标准金卡</t>
   </si>
   <si>
-    <t>双证+公积金(支付宝)+收入证明+光大信用卡</t>
+    <t>双证+公积金+收入证明+光大信用卡</t>
+  </si>
+  <si>
+    <t>汇德隆卡</t>
   </si>
   <si>
     <t>京东小白卡</t>
@@ -377,49 +392,49 @@
     <t>花旗银行</t>
   </si>
   <si>
+    <t>汇丰银行</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
+    <t>杭联银行</t>
+  </si>
+  <si>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>渤海银行</t>
+  </si>
+  <si>
+    <t>台州银行</t>
+  </si>
+  <si>
+    <t>郑州银行</t>
+  </si>
+  <si>
+    <t>东亚银行</t>
+  </si>
+  <si>
     <t>渣打银行</t>
   </si>
   <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>汇丰银行</t>
-  </si>
-  <si>
     <t>温州银行</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>杭州银行</t>
-  </si>
-  <si>
-    <t>杭联银行</t>
-  </si>
-  <si>
-    <t>南京银行</t>
-  </si>
-  <si>
-    <t>江苏银行</t>
-  </si>
-  <si>
-    <t>北京银行</t>
-  </si>
-  <si>
-    <t>渤海银行</t>
-  </si>
-  <si>
-    <t>台州银行</t>
-  </si>
-  <si>
-    <t>郑州银行</t>
-  </si>
-  <si>
-    <t>东亚银行</t>
   </si>
   <si>
     <t>提额日期(加粗为下卡)</t>
@@ -540,13 +555,13 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,10 +604,26 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,24 +634,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,15 +649,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,9 +689,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,51 +752,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,7 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,43 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +828,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,13 +924,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,61 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,6 +977,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -974,64 +1063,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,15 +1077,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1061,10 +1085,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,137 +1097,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1256,6 +1280,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,8 +1611,8 @@
   <sheetPr/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M8:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1700,27 +1727,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="5:12">
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="13"/>
+      <c r="K8" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
         <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
       </c>
       <c r="M9">
         <v>35</v>
@@ -1728,16 +1761,16 @@
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
         <v>16</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
       </c>
       <c r="M10">
         <v>40</v>
@@ -1746,16 +1779,16 @@
     <row r="11" spans="4:13">
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
         <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1766,14 +1799,14 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="13"/>
       <c r="K12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
         <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1784,11 +1817,10 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="13"/>
+        <v>24</v>
+      </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -1796,11 +1828,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -1808,11 +1842,11 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="13"/>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -1820,31 +1854,37 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="13"/>
       <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
         <v>27</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
       </c>
       <c r="M16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:13">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1852,16 +1892,16 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
         <v>30</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -1872,10 +1912,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -1883,10 +1923,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -1894,16 +1934,16 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -1911,12 +1951,12 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -1924,12 +1964,12 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1937,39 +1977,33 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="K24" t="s">
+      <c r="K24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:12">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="K25" t="s">
-        <v>5</v>
-      </c>
       <c r="L25" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -1977,10 +2011,10 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1988,13 +2022,13 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27">
         <v>50</v>
@@ -2005,16 +2039,16 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M28">
         <v>30</v>
@@ -2025,16 +2059,16 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M29">
         <v>20</v>
@@ -2045,13 +2079,13 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -2059,13 +2093,13 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -2073,10 +2107,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -2084,10 +2118,10 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -2095,10 +2129,10 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2106,7 +2140,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2114,7 +2148,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2122,7 +2156,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2130,7 +2164,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2170,10 +2204,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C17:C18 C14 C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2200,37 +2234,37 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N1"/>
     </row>
@@ -2239,25 +2273,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5">
         <v>42227</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="5">
         <v>42241</v>
@@ -2276,22 +2310,22 @@
     <row r="3" spans="2:12">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5">
         <v>42948</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
         <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
       </c>
       <c r="I3" s="5">
         <v>42956</v>
@@ -2308,22 +2342,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="5">
         <v>42951</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="I4" s="5">
         <v>42965</v>
@@ -2344,25 +2378,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="5">
         <v>42951</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5">
         <v>42965</v>
@@ -2382,25 +2416,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5">
         <v>42957</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" s="5">
         <v>42982</v>
@@ -2421,25 +2455,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="5">
         <v>42965</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="5">
         <v>42980</v>
@@ -2463,19 +2497,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="5">
         <v>42984</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="5">
         <v>42996</v>
@@ -2494,16 +2528,19 @@
     <row r="9" spans="2:19">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="5">
         <v>42984</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="5">
         <v>42997</v>
@@ -2518,22 +2555,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5">
         <v>42984</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="5">
         <v>42999</v>
@@ -2554,22 +2591,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="5">
         <v>42986</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="5">
         <v>43014</v>
@@ -2593,19 +2630,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="5">
         <v>42990</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I12" s="5">
         <v>43000</v>
@@ -2626,19 +2663,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="5">
         <v>43000</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2647,22 +2684,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5">
         <v>43003</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="5">
         <v>43024</v>
@@ -2682,22 +2719,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="5">
         <v>43006</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2706,112 +2743,144 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="5">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>104</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F17" s="5">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="I17" s="5">
+        <v>43030</v>
+      </c>
+      <c r="J17" s="6">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="6" t="s">
         <v>106</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="5">
         <v>43018</v>
       </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="5">
+        <v>43030</v>
+      </c>
+      <c r="L18">
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="5">
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43018</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="5">
         <v>43026</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="6">
         <v>30</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>30</v>
       </c>
-      <c r="L18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>110</v>
       </c>
+      <c r="F20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -2819,7 +2888,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
@@ -2827,23 +2896,23 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>117</v>
@@ -2851,7 +2920,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>118</v>
@@ -2859,7 +2928,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>119</v>
@@ -2867,7 +2936,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
@@ -2875,7 +2944,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>121</v>
@@ -2883,7 +2952,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
@@ -2891,7 +2960,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>123</v>
@@ -2899,14 +2968,22 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="5"/>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2917,10 +2994,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2933,24 +3010,24 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>42241</v>
@@ -2977,7 +3054,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2991,7 +3068,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3007,7 +3084,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>42965</v>
@@ -3018,7 +3095,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5">
         <v>42980</v>
@@ -3029,7 +3106,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5">
         <v>42982</v>
@@ -3051,7 +3128,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5">
         <v>42999</v>
@@ -3073,7 +3150,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5">
         <v>43014</v>
@@ -3084,7 +3161,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5">
         <v>43024</v>
@@ -3095,13 +3172,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>43026</v>
       </c>
       <c r="C15">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43030</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3158,69 +3246,69 @@
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
         <v>134</v>
       </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" t="s">
         <v>134</v>
       </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" t="s">
         <v>133</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s">
         <v>134</v>
       </c>
-      <c r="N2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" t="s">
         <v>134</v>
       </c>
-      <c r="R2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T2" t="s">
-        <v>133</v>
-      </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -3278,7 +3366,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -3295,7 +3383,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -3312,7 +3400,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>35</v>
@@ -3346,7 +3434,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3380,7 +3468,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3397,12 +3485,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3437,109 +3525,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
